--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bsg-Slc16a7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5729800211954</v>
+        <v>40.93737866666667</v>
       </c>
       <c r="H2">
-        <v>39.5729800211954</v>
+        <v>122.812136</v>
       </c>
       <c r="I2">
-        <v>0.1351372892707891</v>
+        <v>0.1310914068304752</v>
       </c>
       <c r="J2">
-        <v>0.1351372892707891</v>
+        <v>0.1368503435998189</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.04354189687326</v>
+        <v>0.1233133333333333</v>
       </c>
       <c r="N2">
-        <v>1.04354189687326</v>
+        <v>0.36994</v>
       </c>
       <c r="O2">
-        <v>0.03479480700541418</v>
+        <v>0.003513466091996425</v>
       </c>
       <c r="P2">
-        <v>0.03479480700541418</v>
+        <v>0.003597444676524823</v>
       </c>
       <c r="Q2">
-        <v>41.29606263624586</v>
+        <v>5.048124621315556</v>
       </c>
       <c r="R2">
-        <v>41.29606263624586</v>
+        <v>45.43312159184</v>
       </c>
       <c r="S2">
-        <v>0.004702075899411934</v>
+        <v>0.0004605852128509832</v>
       </c>
       <c r="T2">
-        <v>0.004702075899411934</v>
+        <v>0.0004923115400637613</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5729800211954</v>
+        <v>40.93737866666667</v>
       </c>
       <c r="H3">
-        <v>39.5729800211954</v>
+        <v>122.812136</v>
       </c>
       <c r="I3">
-        <v>0.1351372892707891</v>
+        <v>0.1310914068304752</v>
       </c>
       <c r="J3">
-        <v>0.1351372892707891</v>
+        <v>0.1368503435998189</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.5162759297653</v>
+        <v>1.156927333333333</v>
       </c>
       <c r="N3">
-        <v>12.5162759297653</v>
+        <v>3.470782</v>
       </c>
       <c r="O3">
-        <v>0.4173300628442204</v>
+        <v>0.03296338560229101</v>
       </c>
       <c r="P3">
-        <v>0.4173300628442204</v>
+        <v>0.03375127379920576</v>
       </c>
       <c r="Q3">
-        <v>495.306337308371</v>
+        <v>47.36157233448355</v>
       </c>
       <c r="R3">
-        <v>495.306337308371</v>
+        <v>426.254151010352</v>
       </c>
       <c r="S3">
-        <v>0.05639685342397599</v>
+        <v>0.004321216592499759</v>
       </c>
       <c r="T3">
-        <v>0.05639685342397599</v>
+        <v>0.004618873416352872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5729800211954</v>
+        <v>40.93737866666667</v>
       </c>
       <c r="H4">
-        <v>39.5729800211954</v>
+        <v>122.812136</v>
       </c>
       <c r="I4">
-        <v>0.1351372892707891</v>
+        <v>0.1310914068304752</v>
       </c>
       <c r="J4">
-        <v>0.1351372892707891</v>
+        <v>0.1368503435998189</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.0804993140084</v>
+        <v>14.93318133333334</v>
       </c>
       <c r="N4">
-        <v>14.0804993140084</v>
+        <v>44.799544</v>
       </c>
       <c r="O4">
-        <v>0.4694859474629141</v>
+        <v>0.4254789392358272</v>
       </c>
       <c r="P4">
-        <v>0.4694859474629141</v>
+        <v>0.435648702691084</v>
       </c>
       <c r="Q4">
-        <v>557.2073180417099</v>
+        <v>611.325298940665</v>
       </c>
       <c r="R4">
-        <v>557.2073180417099</v>
+        <v>5501.927690465985</v>
       </c>
       <c r="S4">
-        <v>0.0634450582908663</v>
+        <v>0.05577663272116287</v>
       </c>
       <c r="T4">
-        <v>0.0634450582908663</v>
+        <v>0.05961867465209018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5729800211954</v>
+        <v>40.93737866666667</v>
       </c>
       <c r="H5">
-        <v>39.5729800211954</v>
+        <v>122.812136</v>
       </c>
       <c r="I5">
-        <v>0.1351372892707891</v>
+        <v>0.1310914068304752</v>
       </c>
       <c r="J5">
-        <v>0.1351372892707891</v>
+        <v>0.1368503435998189</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.35099439934467</v>
+        <v>16.425991</v>
       </c>
       <c r="N5">
-        <v>2.35099439934467</v>
+        <v>49.277973</v>
       </c>
       <c r="O5">
-        <v>0.07838918268745129</v>
+        <v>0.4680123458339605</v>
       </c>
       <c r="P5">
-        <v>0.07838918268745129</v>
+        <v>0.4791987393598529</v>
       </c>
       <c r="Q5">
-        <v>93.0358543952089</v>
+        <v>672.4370135422587</v>
       </c>
       <c r="R5">
-        <v>93.0358543952089</v>
+        <v>6051.933121880329</v>
       </c>
       <c r="S5">
-        <v>0.01059330165653483</v>
+        <v>0.06135239682940478</v>
       </c>
       <c r="T5">
-        <v>0.01059330165653483</v>
+        <v>0.06557851213399592</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>128.507515546175</v>
+        <v>40.93737866666667</v>
       </c>
       <c r="H6">
-        <v>128.507515546175</v>
+        <v>122.812136</v>
       </c>
       <c r="I6">
-        <v>0.4388387554470882</v>
+        <v>0.1310914068304752</v>
       </c>
       <c r="J6">
-        <v>0.4388387554470882</v>
+        <v>0.1368503435998189</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.04354189687326</v>
+        <v>2.4579325</v>
       </c>
       <c r="N6">
-        <v>1.04354189687326</v>
+        <v>4.915865</v>
       </c>
       <c r="O6">
-        <v>0.03479480700541418</v>
+        <v>0.07003186323592478</v>
       </c>
       <c r="P6">
-        <v>0.03479480700541418</v>
+        <v>0.0478038394733327</v>
       </c>
       <c r="Q6">
-        <v>134.1029765355254</v>
+        <v>100.6213134896067</v>
       </c>
       <c r="R6">
-        <v>134.1029765355254</v>
+        <v>603.7278809376401</v>
       </c>
       <c r="S6">
-        <v>0.01526930980227758</v>
+        <v>0.009180575474556816</v>
       </c>
       <c r="T6">
-        <v>0.01526930980227758</v>
+        <v>0.006541971857316165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>128.507515546175</v>
+        <v>141.4996693333333</v>
       </c>
       <c r="H7">
-        <v>128.507515546175</v>
+        <v>424.499008</v>
       </c>
       <c r="I7">
-        <v>0.4388387554470882</v>
+        <v>0.4531162307677896</v>
       </c>
       <c r="J7">
-        <v>0.4388387554470882</v>
+        <v>0.4730219422499276</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>12.5162759297653</v>
+        <v>0.1233133333333333</v>
       </c>
       <c r="N7">
-        <v>12.5162759297653</v>
+        <v>0.36994</v>
       </c>
       <c r="O7">
-        <v>0.4173300628442204</v>
+        <v>0.003513466091996425</v>
       </c>
       <c r="P7">
-        <v>0.4173300628442204</v>
+        <v>0.003597444676524823</v>
       </c>
       <c r="Q7">
-        <v>1608.43552362453</v>
+        <v>17.44879589105778</v>
       </c>
       <c r="R7">
-        <v>1608.43552362453</v>
+        <v>157.03916301952</v>
       </c>
       <c r="S7">
-        <v>0.1831406053892128</v>
+        <v>0.001592008512535856</v>
       </c>
       <c r="T7">
-        <v>0.1831406053892128</v>
+        <v>0.001701670268026434</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>128.507515546175</v>
+        <v>141.4996693333333</v>
       </c>
       <c r="H8">
-        <v>128.507515546175</v>
+        <v>424.499008</v>
       </c>
       <c r="I8">
-        <v>0.4388387554470882</v>
+        <v>0.4531162307677896</v>
       </c>
       <c r="J8">
-        <v>0.4388387554470882</v>
+        <v>0.4730219422499276</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.0804993140084</v>
+        <v>1.156927333333333</v>
       </c>
       <c r="N8">
-        <v>14.0804993140084</v>
+        <v>3.470782</v>
       </c>
       <c r="O8">
-        <v>0.4694859474629141</v>
+        <v>0.03296338560229101</v>
       </c>
       <c r="P8">
-        <v>0.4694859474629141</v>
+        <v>0.03375127379920576</v>
       </c>
       <c r="Q8">
-        <v>1809.449984492841</v>
+        <v>163.7048351093618</v>
       </c>
       <c r="R8">
-        <v>1809.449984492841</v>
+        <v>1473.343515984256</v>
       </c>
       <c r="S8">
-        <v>0.2060286288845223</v>
+        <v>0.01493624503745532</v>
       </c>
       <c r="T8">
-        <v>0.2060286288845223</v>
+        <v>0.0159650930859094</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>128.507515546175</v>
+        <v>141.4996693333333</v>
       </c>
       <c r="H9">
-        <v>128.507515546175</v>
+        <v>424.499008</v>
       </c>
       <c r="I9">
-        <v>0.4388387554470882</v>
+        <v>0.4531162307677896</v>
       </c>
       <c r="J9">
-        <v>0.4388387554470882</v>
+        <v>0.4730219422499276</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.35099439934467</v>
+        <v>14.93318133333334</v>
       </c>
       <c r="N9">
-        <v>2.35099439934467</v>
+        <v>44.799544</v>
       </c>
       <c r="O9">
-        <v>0.07838918268745129</v>
+        <v>0.4254789392358272</v>
       </c>
       <c r="P9">
-        <v>0.07838918268745129</v>
+        <v>0.435648702691084</v>
       </c>
       <c r="Q9">
-        <v>302.1204493227555</v>
+        <v>2113.040220761373</v>
       </c>
       <c r="R9">
-        <v>302.1204493227555</v>
+        <v>19017.36198685235</v>
       </c>
       <c r="S9">
-        <v>0.03440021137107555</v>
+        <v>0.1927914132176154</v>
       </c>
       <c r="T9">
-        <v>0.03440021137107555</v>
+        <v>0.2060713954855978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.5607420810731</v>
+        <v>141.4996693333333</v>
       </c>
       <c r="H10">
-        <v>39.5607420810731</v>
+        <v>424.499008</v>
       </c>
       <c r="I10">
-        <v>0.1350954980775683</v>
+        <v>0.4531162307677896</v>
       </c>
       <c r="J10">
-        <v>0.1350954980775683</v>
+        <v>0.4730219422499276</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.04354189687326</v>
+        <v>16.425991</v>
       </c>
       <c r="N10">
-        <v>1.04354189687326</v>
+        <v>49.277973</v>
       </c>
       <c r="O10">
-        <v>0.03479480700541418</v>
+        <v>0.4680123458339605</v>
       </c>
       <c r="P10">
-        <v>0.03479480700541418</v>
+        <v>0.4791987393598529</v>
       </c>
       <c r="Q10">
-        <v>41.28329183299682</v>
+        <v>2324.272294972309</v>
       </c>
       <c r="R10">
-        <v>41.28329183299682</v>
+        <v>20918.45065475078</v>
       </c>
       <c r="S10">
-        <v>0.004700621782909293</v>
+        <v>0.2120639900970754</v>
       </c>
       <c r="T10">
-        <v>0.004700621782909293</v>
+        <v>0.2266715184157144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.5607420810731</v>
+        <v>141.4996693333333</v>
       </c>
       <c r="H11">
-        <v>39.5607420810731</v>
+        <v>424.499008</v>
       </c>
       <c r="I11">
-        <v>0.1350954980775683</v>
+        <v>0.4531162307677896</v>
       </c>
       <c r="J11">
-        <v>0.1350954980775683</v>
+        <v>0.4730219422499276</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.5162759297653</v>
+        <v>2.4579325</v>
       </c>
       <c r="N11">
-        <v>12.5162759297653</v>
+        <v>4.915865</v>
       </c>
       <c r="O11">
-        <v>0.4173300628442204</v>
+        <v>0.07003186323592478</v>
       </c>
       <c r="P11">
-        <v>0.4173300628442204</v>
+        <v>0.0478038394733327</v>
       </c>
       <c r="Q11">
-        <v>495.1531638729884</v>
+        <v>347.7966359936534</v>
       </c>
       <c r="R11">
-        <v>495.1531638729884</v>
+        <v>2086.77981596192</v>
       </c>
       <c r="S11">
-        <v>0.05637941270268286</v>
+        <v>0.03173257390310757</v>
       </c>
       <c r="T11">
-        <v>0.05637941270268286</v>
+        <v>0.02261226499467959</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.5607420810731</v>
+        <v>41.22149733333333</v>
       </c>
       <c r="H12">
-        <v>39.5607420810731</v>
+        <v>123.664492</v>
       </c>
       <c r="I12">
-        <v>0.1350954980775683</v>
+        <v>0.1320012236515131</v>
       </c>
       <c r="J12">
-        <v>0.1350954980775683</v>
+        <v>0.1378001293072295</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>14.0804993140084</v>
+        <v>0.1233133333333333</v>
       </c>
       <c r="N12">
-        <v>14.0804993140084</v>
+        <v>0.36994</v>
       </c>
       <c r="O12">
-        <v>0.4694859474629141</v>
+        <v>0.003513466091996425</v>
       </c>
       <c r="P12">
-        <v>0.4694859474629141</v>
+        <v>0.003597444676524823</v>
       </c>
       <c r="Q12">
-        <v>557.035001734213</v>
+        <v>5.083160241164444</v>
       </c>
       <c r="R12">
-        <v>557.035001734213</v>
+        <v>45.74844217048</v>
       </c>
       <c r="S12">
-        <v>0.06342543791292146</v>
+        <v>0.0004637818234016279</v>
       </c>
       <c r="T12">
-        <v>0.06342543791292146</v>
+        <v>0.0004957283416007249</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.5607420810731</v>
+        <v>41.22149733333333</v>
       </c>
       <c r="H13">
-        <v>39.5607420810731</v>
+        <v>123.664492</v>
       </c>
       <c r="I13">
-        <v>0.1350954980775683</v>
+        <v>0.1320012236515131</v>
       </c>
       <c r="J13">
-        <v>0.1350954980775683</v>
+        <v>0.1378001293072295</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.35099439934467</v>
+        <v>1.156927333333333</v>
       </c>
       <c r="N13">
-        <v>2.35099439934467</v>
+        <v>3.470782</v>
       </c>
       <c r="O13">
-        <v>0.07838918268745129</v>
+        <v>0.03296338560229101</v>
       </c>
       <c r="P13">
-        <v>0.07838918268745129</v>
+        <v>0.03375127379920576</v>
       </c>
       <c r="Q13">
-        <v>93.00708306652186</v>
+        <v>47.69027698586044</v>
       </c>
       <c r="R13">
-        <v>93.00708306652186</v>
+        <v>429.212492872744</v>
       </c>
       <c r="S13">
-        <v>0.01059002567905473</v>
+        <v>0.004351207235199083</v>
       </c>
       <c r="T13">
-        <v>0.01059002567905473</v>
+        <v>0.004650929893814259</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>49.1586801484462</v>
+        <v>41.22149733333333</v>
       </c>
       <c r="H14">
-        <v>49.1586801484462</v>
+        <v>123.664492</v>
       </c>
       <c r="I14">
-        <v>0.1678713803163843</v>
+        <v>0.1320012236515131</v>
       </c>
       <c r="J14">
-        <v>0.1678713803163843</v>
+        <v>0.1378001293072295</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.04354189687326</v>
+        <v>14.93318133333334</v>
       </c>
       <c r="N14">
-        <v>1.04354189687326</v>
+        <v>44.799544</v>
       </c>
       <c r="O14">
-        <v>0.03479480700541418</v>
+        <v>0.4254789392358272</v>
       </c>
       <c r="P14">
-        <v>0.03479480700541418</v>
+        <v>0.435648702691084</v>
       </c>
       <c r="Q14">
-        <v>51.29914232989542</v>
+        <v>615.5680945101832</v>
       </c>
       <c r="R14">
-        <v>51.29914232989542</v>
+        <v>5540.112850591649</v>
       </c>
       <c r="S14">
-        <v>0.005841052279841077</v>
+        <v>0.056163740617077</v>
       </c>
       <c r="T14">
-        <v>0.005841052279841077</v>
+        <v>0.06003244756335813</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.1586801484462</v>
+        <v>41.22149733333333</v>
       </c>
       <c r="H15">
-        <v>49.1586801484462</v>
+        <v>123.664492</v>
       </c>
       <c r="I15">
-        <v>0.1678713803163843</v>
+        <v>0.1320012236515131</v>
       </c>
       <c r="J15">
-        <v>0.1678713803163843</v>
+        <v>0.1378001293072295</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.5162759297653</v>
+        <v>16.425991</v>
       </c>
       <c r="N15">
-        <v>12.5162759297653</v>
+        <v>49.277973</v>
       </c>
       <c r="O15">
-        <v>0.4173300628442204</v>
+        <v>0.4680123458339605</v>
       </c>
       <c r="P15">
-        <v>0.4173300628442204</v>
+        <v>0.4791987393598529</v>
       </c>
       <c r="Q15">
-        <v>615.2836050810284</v>
+        <v>677.1039442038573</v>
       </c>
       <c r="R15">
-        <v>615.2836050810284</v>
+        <v>6093.935497834716</v>
       </c>
       <c r="S15">
-        <v>0.07005777369718269</v>
+        <v>0.06177820233409793</v>
       </c>
       <c r="T15">
-        <v>0.07005777369718269</v>
+        <v>0.06603364824764907</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.1586801484462</v>
+        <v>41.22149733333333</v>
       </c>
       <c r="H16">
-        <v>49.1586801484462</v>
+        <v>123.664492</v>
       </c>
       <c r="I16">
-        <v>0.1678713803163843</v>
+        <v>0.1320012236515131</v>
       </c>
       <c r="J16">
-        <v>0.1678713803163843</v>
+        <v>0.1378001293072295</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.0804993140084</v>
+        <v>2.4579325</v>
       </c>
       <c r="N16">
-        <v>14.0804993140084</v>
+        <v>4.915865</v>
       </c>
       <c r="O16">
-        <v>0.4694859474629141</v>
+        <v>0.07003186323592478</v>
       </c>
       <c r="P16">
-        <v>0.4694859474629141</v>
+        <v>0.0478038394733327</v>
       </c>
       <c r="Q16">
-        <v>692.178762107755</v>
+        <v>101.3196579942633</v>
       </c>
       <c r="R16">
-        <v>692.178762107755</v>
+        <v>607.91794796558</v>
       </c>
       <c r="S16">
-        <v>0.07881325403974487</v>
+        <v>0.009244291641737486</v>
       </c>
       <c r="T16">
-        <v>0.07881325403974487</v>
+        <v>0.006587375260807286</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.1586801484462</v>
+        <v>49.198377</v>
       </c>
       <c r="H17">
-        <v>49.1586801484462</v>
+        <v>147.595131</v>
       </c>
       <c r="I17">
-        <v>0.1678713803163843</v>
+        <v>0.1575451253784747</v>
       </c>
       <c r="J17">
-        <v>0.1678713803163843</v>
+        <v>0.1644661924210021</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>2.35099439934467</v>
+        <v>0.1233133333333333</v>
       </c>
       <c r="N17">
-        <v>2.35099439934467</v>
+        <v>0.36994</v>
       </c>
       <c r="O17">
-        <v>0.07838918268745129</v>
+        <v>0.003513466091996425</v>
       </c>
       <c r="P17">
-        <v>0.07838918268745129</v>
+        <v>0.003597444676524823</v>
       </c>
       <c r="Q17">
-        <v>115.571781708173</v>
+        <v>6.06681586246</v>
       </c>
       <c r="R17">
-        <v>115.571781708173</v>
+        <v>54.60134276214</v>
       </c>
       <c r="S17">
-        <v>0.01315930029961566</v>
+        <v>0.0005535294559765962</v>
       </c>
       <c r="T17">
-        <v>0.01315930029961566</v>
+        <v>0.0005916580283932411</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,57 +1526,57 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>36.0354663871069</v>
+        <v>49.198377</v>
       </c>
       <c r="H18">
-        <v>36.0354663871069</v>
+        <v>147.595131</v>
       </c>
       <c r="I18">
-        <v>0.1230570768881701</v>
+        <v>0.1575451253784747</v>
       </c>
       <c r="J18">
-        <v>0.1230570768881701</v>
+        <v>0.1644661924210021</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.04354189687326</v>
+        <v>1.156927333333333</v>
       </c>
       <c r="N18">
-        <v>1.04354189687326</v>
+        <v>3.470782</v>
       </c>
       <c r="O18">
-        <v>0.03479480700541418</v>
+        <v>0.03296338560229101</v>
       </c>
       <c r="P18">
-        <v>0.03479480700541418</v>
+        <v>0.03375127379920576</v>
       </c>
       <c r="Q18">
-        <v>37.60451894831414</v>
+        <v>56.91894710693799</v>
       </c>
       <c r="R18">
-        <v>37.60451894831414</v>
+        <v>512.270523962442</v>
       </c>
       <c r="S18">
-        <v>0.004281747240974292</v>
+        <v>0.005193220717611944</v>
       </c>
       <c r="T18">
-        <v>0.004281747240974292</v>
+        <v>0.0055509434911141</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>36.0354663871069</v>
+        <v>49.198377</v>
       </c>
       <c r="H19">
-        <v>36.0354663871069</v>
+        <v>147.595131</v>
       </c>
       <c r="I19">
-        <v>0.1230570768881701</v>
+        <v>0.1575451253784747</v>
       </c>
       <c r="J19">
-        <v>0.1230570768881701</v>
+        <v>0.1644661924210021</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.5162759297653</v>
+        <v>14.93318133333334</v>
       </c>
       <c r="N19">
-        <v>12.5162759297653</v>
+        <v>44.799544</v>
       </c>
       <c r="O19">
-        <v>0.4173300628442204</v>
+        <v>0.4254789392358272</v>
       </c>
       <c r="P19">
-        <v>0.4173300628442204</v>
+        <v>0.435648702691084</v>
       </c>
       <c r="Q19">
-        <v>451.0298405588126</v>
+        <v>734.6882850466961</v>
       </c>
       <c r="R19">
-        <v>451.0298405588126</v>
+        <v>6612.194565420265</v>
       </c>
       <c r="S19">
-        <v>0.05135541763116609</v>
+        <v>0.06703213282780882</v>
       </c>
       <c r="T19">
-        <v>0.05135541763116609</v>
+        <v>0.07164948336475174</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>36.0354663871069</v>
+        <v>49.198377</v>
       </c>
       <c r="H20">
-        <v>36.0354663871069</v>
+        <v>147.595131</v>
       </c>
       <c r="I20">
-        <v>0.1230570768881701</v>
+        <v>0.1575451253784747</v>
       </c>
       <c r="J20">
-        <v>0.1230570768881701</v>
+        <v>0.1644661924210021</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.0804993140084</v>
+        <v>16.425991</v>
       </c>
       <c r="N20">
-        <v>14.0804993140084</v>
+        <v>49.277973</v>
       </c>
       <c r="O20">
-        <v>0.4694859474629141</v>
+        <v>0.4680123458339605</v>
       </c>
       <c r="P20">
-        <v>0.4694859474629141</v>
+        <v>0.4791987393598529</v>
       </c>
       <c r="Q20">
-        <v>507.3973597436315</v>
+        <v>808.132097816607</v>
       </c>
       <c r="R20">
-        <v>507.3973597436315</v>
+        <v>7273.188880349464</v>
       </c>
       <c r="S20">
-        <v>0.05777356833485921</v>
+        <v>0.07373306370308536</v>
       </c>
       <c r="T20">
-        <v>0.05777356833485921</v>
+        <v>0.07881199207545918</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>36.0354663871069</v>
+        <v>49.198377</v>
       </c>
       <c r="H21">
-        <v>36.0354663871069</v>
+        <v>147.595131</v>
       </c>
       <c r="I21">
-        <v>0.1230570768881701</v>
+        <v>0.1575451253784747</v>
       </c>
       <c r="J21">
-        <v>0.1230570768881701</v>
+        <v>0.1644661924210021</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.35099439934467</v>
+        <v>2.4579325</v>
       </c>
       <c r="N21">
-        <v>2.35099439934467</v>
+        <v>4.915865</v>
       </c>
       <c r="O21">
-        <v>0.07838918268745129</v>
+        <v>0.07003186323592478</v>
       </c>
       <c r="P21">
-        <v>0.07838918268745129</v>
+        <v>0.0478038394733327</v>
       </c>
       <c r="Q21">
-        <v>84.71917965386143</v>
+        <v>120.9262897755525</v>
       </c>
       <c r="R21">
-        <v>84.71917965386143</v>
+        <v>725.557738653315</v>
       </c>
       <c r="S21">
-        <v>0.009646343681170505</v>
+        <v>0.01103317867399196</v>
       </c>
       <c r="T21">
-        <v>0.009646343681170505</v>
+        <v>0.00786211546128383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>39.4242535</v>
+      </c>
+      <c r="H22">
+        <v>78.848507</v>
+      </c>
+      <c r="I22">
+        <v>0.1262460133717474</v>
+      </c>
+      <c r="J22">
+        <v>0.0878613924220219</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1233133333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.36994</v>
+      </c>
+      <c r="O22">
+        <v>0.003513466091996425</v>
+      </c>
+      <c r="P22">
+        <v>0.003597444676524823</v>
+      </c>
+      <c r="Q22">
+        <v>4.861536113263333</v>
+      </c>
+      <c r="R22">
+        <v>29.16921667958</v>
+      </c>
+      <c r="S22">
+        <v>0.0004435610872313617</v>
+      </c>
+      <c r="T22">
+        <v>0.0003160764984406611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>39.4242535</v>
+      </c>
+      <c r="H23">
+        <v>78.848507</v>
+      </c>
+      <c r="I23">
+        <v>0.1262460133717474</v>
+      </c>
+      <c r="J23">
+        <v>0.0878613924220219</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.156927333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.470782</v>
+      </c>
+      <c r="O23">
+        <v>0.03296338560229101</v>
+      </c>
+      <c r="P23">
+        <v>0.03375127379920576</v>
+      </c>
+      <c r="Q23">
+        <v>45.61099647041232</v>
+      </c>
+      <c r="R23">
+        <v>273.665978822474</v>
+      </c>
+      <c r="S23">
+        <v>0.004161496019524895</v>
+      </c>
+      <c r="T23">
+        <v>0.002965433912015123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>39.4242535</v>
+      </c>
+      <c r="H24">
+        <v>78.848507</v>
+      </c>
+      <c r="I24">
+        <v>0.1262460133717474</v>
+      </c>
+      <c r="J24">
+        <v>0.0878613924220219</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>14.93318133333334</v>
+      </c>
+      <c r="N24">
+        <v>44.799544</v>
+      </c>
+      <c r="O24">
+        <v>0.4254789392358272</v>
+      </c>
+      <c r="P24">
+        <v>0.435648702691084</v>
+      </c>
+      <c r="Q24">
+        <v>588.7295264468014</v>
+      </c>
+      <c r="R24">
+        <v>3532.377158680808</v>
+      </c>
+      <c r="S24">
+        <v>0.05371501985216313</v>
+      </c>
+      <c r="T24">
+        <v>0.03827670162528608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>39.4242535</v>
+      </c>
+      <c r="H25">
+        <v>78.848507</v>
+      </c>
+      <c r="I25">
+        <v>0.1262460133717474</v>
+      </c>
+      <c r="J25">
+        <v>0.0878613924220219</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.425991</v>
+      </c>
+      <c r="N25">
+        <v>49.277973</v>
+      </c>
+      <c r="O25">
+        <v>0.4680123458339605</v>
+      </c>
+      <c r="P25">
+        <v>0.4791987393598529</v>
+      </c>
+      <c r="Q25">
+        <v>647.5824331727184</v>
+      </c>
+      <c r="R25">
+        <v>3885.494599036311</v>
+      </c>
+      <c r="S25">
+        <v>0.05908469287029704</v>
+      </c>
+      <c r="T25">
+        <v>0.04210306848703423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>39.4242535</v>
+      </c>
+      <c r="H26">
+        <v>78.848507</v>
+      </c>
+      <c r="I26">
+        <v>0.1262460133717474</v>
+      </c>
+      <c r="J26">
+        <v>0.0878613924220219</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.4579325</v>
+      </c>
+      <c r="N26">
+        <v>4.915865</v>
+      </c>
+      <c r="O26">
+        <v>0.07003186323592478</v>
+      </c>
+      <c r="P26">
+        <v>0.0478038394733327</v>
+      </c>
+      <c r="Q26">
+        <v>96.90215396588874</v>
+      </c>
+      <c r="R26">
+        <v>387.608615863555</v>
+      </c>
+      <c r="S26">
+        <v>0.008841243542530942</v>
+      </c>
+      <c r="T26">
+        <v>0.004200111899245825</v>
       </c>
     </row>
   </sheetData>
